--- a/test_data/配置管理.xlsx
+++ b/test_data/配置管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12690" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="创建配置项类型" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,16 @@
     <sheet name="修改类型属性" sheetId="7" r:id="rId7"/>
     <sheet name="配置类型关系" sheetId="8" r:id="rId8"/>
     <sheet name="配置项关系" sheetId="9" r:id="rId9"/>
+    <sheet name="创建字典" sheetId="10" r:id="rId10"/>
+    <sheet name="编辑字典" sheetId="11" r:id="rId11"/>
+    <sheet name="删除字典" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -235,6 +238,54 @@
   </si>
   <si>
     <t>配置项间关系</t>
+  </si>
+  <si>
+    <t>dictionaries_name</t>
+  </si>
+  <si>
+    <t>dictionaries_code</t>
+  </si>
+  <si>
+    <t>parentDictionary</t>
+  </si>
+  <si>
+    <t>创建一级字典</t>
+  </si>
+  <si>
+    <t>一级字典</t>
+  </si>
+  <si>
+    <t>code_1</t>
+  </si>
+  <si>
+    <t>创建二级字典</t>
+  </si>
+  <si>
+    <t>二级字典</t>
+  </si>
+  <si>
+    <t>code_2</t>
+  </si>
+  <si>
+    <t>update_dictionaries_name</t>
+  </si>
+  <si>
+    <t>编辑一级字典</t>
+  </si>
+  <si>
+    <t>编辑一级字典测试</t>
+  </si>
+  <si>
+    <t>编辑二级字典</t>
+  </si>
+  <si>
+    <t>编辑二级字典测试</t>
+  </si>
+  <si>
+    <t>删除二级字典</t>
+  </si>
+  <si>
+    <t>删除一级字典</t>
   </si>
 </sst>
 </file>
@@ -242,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -271,15 +322,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,68 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,14 +368,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -394,7 +422,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +442,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -417,187 +468,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,24 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -685,17 +718,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,17 +766,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,10 +808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,138 +820,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,95 +1311,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1358,6 +1412,224 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1386,128 +1658,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1543,51 +1815,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1622,80 +1894,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1733,90 +2005,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1853,50 +2125,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1917,7 +2189,7 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1936,185 +2208,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" customFormat="1" spans="1:15">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="b">
+      <c r="I4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="b">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:15">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="b">
+      <c r="I5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="4" t="b">
+      <c r="N5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2158,43 +2430,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2229,57 +2501,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/test_data/配置管理.xlsx
+++ b/test_data/配置管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="21000" windowHeight="11820" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="创建配置项类型" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,21 @@
     <sheet name="删除配置项类型" sheetId="3" r:id="rId3"/>
     <sheet name="创建配置项" sheetId="4" r:id="rId4"/>
     <sheet name="编辑配置项" sheetId="5" r:id="rId5"/>
-    <sheet name="删除配置项" sheetId="6" r:id="rId6"/>
-    <sheet name="修改类型属性" sheetId="7" r:id="rId7"/>
-    <sheet name="配置类型关系" sheetId="8" r:id="rId8"/>
-    <sheet name="配置项关系" sheetId="9" r:id="rId9"/>
-    <sheet name="创建字典" sheetId="10" r:id="rId10"/>
-    <sheet name="编辑字典" sheetId="11" r:id="rId11"/>
-    <sheet name="删除字典" sheetId="12" r:id="rId12"/>
+    <sheet name="导入导出配置项" sheetId="13" r:id="rId6"/>
+    <sheet name="删除配置项" sheetId="6" r:id="rId7"/>
+    <sheet name="修改类型属性" sheetId="7" r:id="rId8"/>
+    <sheet name="配置类型关系" sheetId="8" r:id="rId9"/>
+    <sheet name="配置项关系" sheetId="9" r:id="rId10"/>
+    <sheet name="创建字典" sheetId="10" r:id="rId11"/>
+    <sheet name="编辑字典" sheetId="11" r:id="rId12"/>
+    <sheet name="删除字典" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>vmtest2</t>
+  </si>
+  <si>
+    <t>选择某配置项导入导出</t>
   </si>
   <si>
     <t>namecode</t>
@@ -305,9 +309,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -334,6 +338,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -349,9 +361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,82 +370,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +405,75 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -480,31 +484,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,151 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,6 +719,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -739,15 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -759,30 +769,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,6 +798,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -820,10 +824,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,133 +836,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1463,6 +1467,111 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6">
+        <v>200</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1487,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -1507,19 +1616,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1527,22 +1636,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
@@ -1586,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1609,19 +1718,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1629,19 +1738,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1658,12 +1767,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1682,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -1698,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -1712,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2164,7 +2273,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J4"/>
+      <selection activeCell="A1" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2307,10 +2416,63 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2329,10 +2491,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -2350,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -2367,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -2392,12 +2554,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q4"/>
     </sheetView>
   </sheetViews>
@@ -2425,13 +2587,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -2440,28 +2602,28 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>7</v>
@@ -2494,13 +2656,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -2519,7 +2681,7 @@
         <v>200</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:17">
@@ -2527,25 +2689,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" s="5" t="b">
         <v>1</v>
@@ -2570,7 +2732,7 @@
         <v>200</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:17">
@@ -2578,25 +2740,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" s="5" t="b">
         <v>1</v>
@@ -2611,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" s="5" t="b">
         <v>0</v>
@@ -2623,7 +2785,7 @@
         <v>200</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G3"/>
@@ -2677,13 +2839,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -2706,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -2721,7 +2883,7 @@
         <v>200</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2737,109 +2899,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="29.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="6">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>